--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 41,61</t>
+          <t>23,4; 41,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,16; 48,82</t>
+          <t>30,26; 49,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,67; 42,52</t>
+          <t>28,85; 42,94</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,98; 52,72</t>
+          <t>39,7; 52,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,83; 42,38</t>
+          <t>30,28; 42,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,1; 46,19</t>
+          <t>36,69; 46,03</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 43,23</t>
+          <t>30,49; 43,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,18; 51,26</t>
+          <t>37,86; 51,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,95; 45,09</t>
+          <t>35,89; 45,3</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,33; 44,06</t>
+          <t>32,7; 44,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,13; 51,89</t>
+          <t>38,14; 51,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,98; 45,5</t>
+          <t>36,8; 45,62</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,59</t>
+          <t>35,58; 42,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,41; 45,76</t>
+          <t>38,53; 45,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,83; 42,91</t>
+          <t>38,27; 43,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>35,04%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,16</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 48,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,21</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 1,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>23,4; 41,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,16</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 49,58</t>
+          <t>22,98; 41,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,85; 42,94</t>
+          <t>28,53; 42,15</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>40,17%</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 41,86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,67</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0; 0,71</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 0,62</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>39,7; 52,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,77</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,28; 42,23</t>
+          <t>39,18; 51,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,69; 46,03</t>
+          <t>35,74; 45,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,38</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,92</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 51,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 1,25</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 1,28</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0; 1,02</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>30,49; 43,35</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,38</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,92</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,86; 51,35</t>
+          <t>29,72; 42,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,89; 45,3</t>
+          <t>35,21; 44,71</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -1149,37 +1149,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>0; 1,16</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40,08; 63,46</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,98</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0; 1,08</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>32,7; 44,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,12</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,14; 51,17</t>
+          <t>29,7; 41,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,8; 45,62</t>
+          <t>36,5; 50,89</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,2%</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,24</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39,19; 51,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0; 0,25</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>0; 0,23</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>35,58; 42,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 45,84</t>
+          <t>34,01; 40,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,27; 43,09</t>
+          <t>37,46; 43,91</t>
         </is>
       </c>
     </row>
